--- a/pricelist.xlsx
+++ b/pricelist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">Site Information</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">Site Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Test site</t>
+  </si>
+  <si>
     <t xml:space="preserve">Site Logo image (700x300)</t>
   </si>
   <si>
@@ -51,6 +54,12 @@
     <t xml:space="preserve">Product (row)</t>
   </si>
   <si>
+    <t xml:space="preserve">Great new products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
@@ -64,6 +73,30 @@
   </si>
   <si>
     <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">art.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More descriptions</t>
   </si>
 </sst>
 </file>
@@ -172,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +224,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -280,15 +317,14 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -301,29 +337,35 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>37757</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45420</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -347,27 +389,38 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -394,37 +447,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="154.025510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="152.270408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/pricelist.xlsx
+++ b/pricelist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId2"/>
@@ -317,8 +317,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -351,17 +351,13 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>37757</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>45420</v>
-      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
@@ -389,7 +385,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/pricelist.xlsx
+++ b/pricelist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId2"/>
@@ -205,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,14 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -318,13 +310,14 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -351,13 +344,11 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
@@ -391,20 +382,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -451,28 +442,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="152.270408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="150.65306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
